--- a/Project2-3 - match-seasonal index/stat_documentation.xlsx
+++ b/Project2-3 - match-seasonal index/stat_documentation.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimi2013-my.sharepoint.com/personal/leonardo_acquaroli_studenti_unimi_it/Documents/Unimi/Subjects/Labs/Football analytics/SPR - Project/Seasonal-Player-Rating/Project2-3 - match-seasonal index/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_84F6843581E28CDE11A1974762F8345A67FE9F6F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{136AE497-DF7D-4D3C-A3B6-5610087CEDE0}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="opta_doc" sheetId="1" r:id="rId4"/>
+    <sheet name="opta_doc" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1648,21 +1657,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <scheme val="minor"/>
@@ -1673,94 +1684,89 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDF2F0"/>
+          <bgColor rgb="FFDDF2F0"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF26A69A"/>
           <bgColor rgb="FF26A69A"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDDF2F0"/>
-          <bgColor rgb="FFDDF2F0"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="opta_doc-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="opta_doc-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B273" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:B273">
   <tableColumns count="2">
-    <tableColumn name="stat" id="1"/>
-    <tableColumn name="description" id="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="stat"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="description"/>
   </tableColumns>
-  <tableStyleInfo name="opta_doc-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="opta_doc-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1950,24 +1956,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B273"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="60.67"/>
-    <col customWidth="1" min="2" max="2" width="45.0"/>
+    <col min="1" max="1" width="60.69140625" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1975,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1983,7 +1994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1991,7 +2002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1999,7 +2010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2007,7 +2018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2015,7 +2026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -2023,7 +2034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2031,7 +2042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -2039,7 +2050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2047,7 +2058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2055,7 +2066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2063,7 +2074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2071,7 +2082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2079,7 +2090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2087,7 +2098,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -2095,7 +2106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2103,7 +2114,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2111,7 +2122,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2119,7 +2130,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -2127,7 +2138,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2135,7 +2146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -2143,7 +2154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2151,7 +2162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -2159,7 +2170,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -2167,7 +2178,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2175,7 +2186,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2183,7 +2194,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -2191,7 +2202,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -2199,7 +2210,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -2207,7 +2218,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -2215,7 +2226,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -2223,7 +2234,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -2231,7 +2242,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -2239,7 +2250,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -2247,7 +2258,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>70</v>
       </c>
@@ -2255,7 +2266,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -2263,7 +2274,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -2271,7 +2282,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" ht="54" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>76</v>
       </c>
@@ -2279,7 +2290,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -2287,7 +2298,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -2295,7 +2306,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>82</v>
       </c>
@@ -2303,7 +2314,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -2311,7 +2322,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -2319,7 +2330,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -2327,7 +2338,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -2335,7 +2346,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -2343,7 +2354,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
@@ -2351,7 +2362,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -2359,7 +2370,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
@@ -2367,7 +2378,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
@@ -2375,7 +2386,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
@@ -2383,7 +2394,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
@@ -2391,7 +2402,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" ht="54" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
@@ -2399,7 +2410,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
@@ -2407,7 +2418,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
@@ -2415,7 +2426,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>112</v>
       </c>
@@ -2423,7 +2434,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
@@ -2431,7 +2442,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
@@ -2439,7 +2450,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
@@ -2447,7 +2458,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
@@ -2455,7 +2466,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
@@ -2463,7 +2474,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
@@ -2471,7 +2482,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
@@ -2479,7 +2490,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
@@ -2487,7 +2498,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
@@ -2495,7 +2506,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -2503,7 +2514,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
@@ -2511,7 +2522,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -2519,7 +2530,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
@@ -2527,7 +2538,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>140</v>
       </c>
@@ -2535,7 +2546,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
@@ -2543,7 +2554,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>144</v>
       </c>
@@ -2551,7 +2562,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>146</v>
       </c>
@@ -2559,7 +2570,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>148</v>
       </c>
@@ -2567,7 +2578,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>150</v>
       </c>
@@ -2575,7 +2586,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>152</v>
       </c>
@@ -2583,7 +2594,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>154</v>
       </c>
@@ -2591,7 +2602,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>156</v>
       </c>
@@ -2599,7 +2610,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>158</v>
       </c>
@@ -2607,7 +2618,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>160</v>
       </c>
@@ -2615,7 +2626,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>162</v>
       </c>
@@ -2623,7 +2634,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>164</v>
       </c>
@@ -2631,7 +2642,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>166</v>
       </c>
@@ -2639,7 +2650,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
@@ -2647,7 +2658,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>170</v>
       </c>
@@ -2655,7 +2666,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>172</v>
       </c>
@@ -2663,7 +2674,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>174</v>
       </c>
@@ -2671,7 +2682,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>176</v>
       </c>
@@ -2679,7 +2690,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>178</v>
       </c>
@@ -2687,7 +2698,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>180</v>
       </c>
@@ -2695,7 +2706,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>182</v>
       </c>
@@ -2703,7 +2714,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>184</v>
       </c>
@@ -2711,7 +2722,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>186</v>
       </c>
@@ -2719,7 +2730,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>188</v>
       </c>
@@ -2727,7 +2738,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>190</v>
       </c>
@@ -2735,7 +2746,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>192</v>
       </c>
@@ -2743,7 +2754,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>194</v>
       </c>
@@ -2751,7 +2762,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>196</v>
       </c>
@@ -2759,7 +2770,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>198</v>
       </c>
@@ -2767,7 +2778,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>200</v>
       </c>
@@ -2775,7 +2786,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>202</v>
       </c>
@@ -2783,7 +2794,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>204</v>
       </c>
@@ -2791,7 +2802,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>206</v>
       </c>
@@ -2799,7 +2810,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>208</v>
       </c>
@@ -2807,7 +2818,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>210</v>
       </c>
@@ -2815,7 +2826,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>212</v>
       </c>
@@ -2823,7 +2834,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>214</v>
       </c>
@@ -2831,7 +2842,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>216</v>
       </c>
@@ -2839,7 +2850,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>218</v>
       </c>
@@ -2847,7 +2858,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2" ht="81" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>220</v>
       </c>
@@ -2855,7 +2866,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2" ht="54" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>222</v>
       </c>
@@ -2863,7 +2874,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2" ht="81" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>224</v>
       </c>
@@ -2871,7 +2882,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2" ht="81" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>226</v>
       </c>
@@ -2879,7 +2890,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>228</v>
       </c>
@@ -2887,7 +2898,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>230</v>
       </c>
@@ -2895,7 +2906,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>232</v>
       </c>
@@ -2903,7 +2914,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>234</v>
       </c>
@@ -2911,7 +2922,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:2" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>236</v>
       </c>
@@ -2919,7 +2930,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>238</v>
       </c>
@@ -2927,7 +2938,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>240</v>
       </c>
@@ -2935,7 +2946,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>242</v>
       </c>
@@ -2943,7 +2954,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>244</v>
       </c>
@@ -2951,7 +2962,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>246</v>
       </c>
@@ -2959,7 +2970,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>248</v>
       </c>
@@ -2967,7 +2978,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>250</v>
       </c>
@@ -2975,7 +2986,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>252</v>
       </c>
@@ -2983,7 +2994,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>254</v>
       </c>
@@ -2991,7 +3002,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>256</v>
       </c>
@@ -2999,7 +3010,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>258</v>
       </c>
@@ -3007,7 +3018,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>260</v>
       </c>
@@ -3015,7 +3026,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>262</v>
       </c>
@@ -3023,7 +3034,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>264</v>
       </c>
@@ -3031,7 +3042,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>266</v>
       </c>
@@ -3039,7 +3050,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:2" ht="54" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>268</v>
       </c>
@@ -3047,7 +3058,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>270</v>
       </c>
@@ -3055,7 +3066,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:2" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>272</v>
       </c>
@@ -3063,7 +3074,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>274</v>
       </c>
@@ -3071,7 +3082,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>276</v>
       </c>
@@ -3079,7 +3090,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>278</v>
       </c>
@@ -3087,7 +3098,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>280</v>
       </c>
@@ -3095,7 +3106,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>282</v>
       </c>
@@ -3103,7 +3114,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:2" ht="81" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>284</v>
       </c>
@@ -3111,7 +3122,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:2" ht="81" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>286</v>
       </c>
@@ -3119,7 +3130,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>288</v>
       </c>
@@ -3127,7 +3138,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>290</v>
       </c>
@@ -3135,7 +3146,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>292</v>
       </c>
@@ -3143,7 +3154,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>294</v>
       </c>
@@ -3151,7 +3162,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>296</v>
       </c>
@@ -3159,7 +3170,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>298</v>
       </c>
@@ -3167,7 +3178,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>300</v>
       </c>
@@ -3175,7 +3186,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>302</v>
       </c>
@@ -3183,7 +3194,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>304</v>
       </c>
@@ -3191,7 +3202,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>306</v>
       </c>
@@ -3199,7 +3210,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>308</v>
       </c>
@@ -3207,7 +3218,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>310</v>
       </c>
@@ -3215,7 +3226,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:2" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>312</v>
       </c>
@@ -3223,7 +3234,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>314</v>
       </c>
@@ -3231,7 +3242,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>316</v>
       </c>
@@ -3239,7 +3250,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>318</v>
       </c>
@@ -3247,7 +3258,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>320</v>
       </c>
@@ -3255,7 +3266,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>322</v>
       </c>
@@ -3263,7 +3274,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>324</v>
       </c>
@@ -3271,7 +3282,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>326</v>
       </c>
@@ -3279,7 +3290,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>328</v>
       </c>
@@ -3287,7 +3298,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>330</v>
       </c>
@@ -3295,7 +3306,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>332</v>
       </c>
@@ -3303,7 +3314,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>334</v>
       </c>
@@ -3311,7 +3322,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>336</v>
       </c>
@@ -3319,7 +3330,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>338</v>
       </c>
@@ -3327,7 +3338,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>340</v>
       </c>
@@ -3335,7 +3346,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>342</v>
       </c>
@@ -3343,7 +3354,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>344</v>
       </c>
@@ -3351,7 +3362,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>346</v>
       </c>
@@ -3359,7 +3370,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>348</v>
       </c>
@@ -3367,7 +3378,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>350</v>
       </c>
@@ -3375,7 +3386,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>352</v>
       </c>
@@ -3383,7 +3394,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:2" ht="54" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>354</v>
       </c>
@@ -3391,7 +3402,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:2" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>356</v>
       </c>
@@ -3399,7 +3410,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>358</v>
       </c>
@@ -3407,7 +3418,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>360</v>
       </c>
@@ -3415,7 +3426,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>362</v>
       </c>
@@ -3423,7 +3434,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:2" ht="54" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>364</v>
       </c>
@@ -3431,7 +3442,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>366</v>
       </c>
@@ -3439,7 +3450,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>368</v>
       </c>
@@ -3447,7 +3458,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>370</v>
       </c>
@@ -3455,7 +3466,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>372</v>
       </c>
@@ -3463,7 +3474,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>374</v>
       </c>
@@ -3471,7 +3482,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:2" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>376</v>
       </c>
@@ -3479,7 +3490,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>378</v>
       </c>
@@ -3487,7 +3498,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>380</v>
       </c>
@@ -3495,7 +3506,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>382</v>
       </c>
@@ -3503,7 +3514,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>384</v>
       </c>
@@ -3511,7 +3522,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:2" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>386</v>
       </c>
@@ -3519,7 +3530,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>388</v>
       </c>
@@ -3527,7 +3538,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:2" ht="54" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>390</v>
       </c>
@@ -3535,7 +3546,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>392</v>
       </c>
@@ -3543,7 +3554,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>394</v>
       </c>
@@ -3551,7 +3562,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>396</v>
       </c>
@@ -3559,7 +3570,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>398</v>
       </c>
@@ -3567,7 +3578,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>400</v>
       </c>
@@ -3575,7 +3586,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>402</v>
       </c>
@@ -3583,7 +3594,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>404</v>
       </c>
@@ -3591,7 +3602,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>406</v>
       </c>
@@ -3599,7 +3610,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>408</v>
       </c>
@@ -3607,7 +3618,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>410</v>
       </c>
@@ -3615,7 +3626,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>412</v>
       </c>
@@ -3623,7 +3634,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>414</v>
       </c>
@@ -3631,7 +3642,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>416</v>
       </c>
@@ -3639,7 +3650,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>418</v>
       </c>
@@ -3647,7 +3658,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>420</v>
       </c>
@@ -3655,7 +3666,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>422</v>
       </c>
@@ -3663,7 +3674,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>424</v>
       </c>
@@ -3671,7 +3682,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>426</v>
       </c>
@@ -3679,7 +3690,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>428</v>
       </c>
@@ -3687,7 +3698,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>430</v>
       </c>
@@ -3695,7 +3706,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>432</v>
       </c>
@@ -3703,7 +3714,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>434</v>
       </c>
@@ -3711,7 +3722,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:2" ht="54" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>436</v>
       </c>
@@ -3719,7 +3730,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>438</v>
       </c>
@@ -3727,7 +3738,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>440</v>
       </c>
@@ -3735,7 +3746,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>442</v>
       </c>
@@ -3743,7 +3754,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:2" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>444</v>
       </c>
@@ -3751,7 +3762,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>446</v>
       </c>
@@ -3759,7 +3770,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>448</v>
       </c>
@@ -3767,7 +3778,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>450</v>
       </c>
@@ -3775,7 +3786,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>452</v>
       </c>
@@ -3783,7 +3794,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>454</v>
       </c>
@@ -3791,7 +3802,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>456</v>
       </c>
@@ -3799,7 +3810,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>458</v>
       </c>
@@ -3807,7 +3818,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>460</v>
       </c>
@@ -3815,7 +3826,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>462</v>
       </c>
@@ -3823,7 +3834,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>464</v>
       </c>
@@ -3831,7 +3842,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>466</v>
       </c>
@@ -3839,7 +3850,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>468</v>
       </c>
@@ -3847,7 +3858,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>470</v>
       </c>
@@ -3855,7 +3866,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>472</v>
       </c>
@@ -3863,7 +3874,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>474</v>
       </c>
@@ -3871,7 +3882,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>476</v>
       </c>
@@ -3879,7 +3890,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>478</v>
       </c>
@@ -3887,7 +3898,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>480</v>
       </c>
@@ -3895,7 +3906,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>480</v>
       </c>
@@ -3903,7 +3914,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>482</v>
       </c>
@@ -3911,7 +3922,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>484</v>
       </c>
@@ -3919,7 +3930,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>486</v>
       </c>
@@ -3927,7 +3938,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>488</v>
       </c>
@@ -3935,7 +3946,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>490</v>
       </c>
@@ -3943,7 +3954,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>492</v>
       </c>
@@ -3951,7 +3962,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>494</v>
       </c>
@@ -3959,7 +3970,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>496</v>
       </c>
@@ -3967,7 +3978,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>498</v>
       </c>
@@ -3975,7 +3986,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:2" ht="54" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>500</v>
       </c>
@@ -3983,7 +3994,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>502</v>
       </c>
@@ -3991,7 +4002,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>504</v>
       </c>
@@ -3999,7 +4010,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>506</v>
       </c>
@@ -4007,7 +4018,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:2" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>508</v>
       </c>
@@ -4015,7 +4026,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>510</v>
       </c>
@@ -4023,7 +4034,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>512</v>
       </c>
@@ -4031,7 +4042,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>514</v>
       </c>
@@ -4039,7 +4050,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>516</v>
       </c>
@@ -4047,7 +4058,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>518</v>
       </c>
@@ -4055,7 +4066,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>520</v>
       </c>
@@ -4063,7 +4074,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>522</v>
       </c>
@@ -4071,7 +4082,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>524</v>
       </c>
@@ -4079,7 +4090,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>526</v>
       </c>
@@ -4087,7 +4098,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>528</v>
       </c>
@@ -4095,7 +4106,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>530</v>
       </c>
@@ -4103,7 +4114,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>532</v>
       </c>
@@ -4111,7 +4122,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>534</v>
       </c>
@@ -4119,7 +4130,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:2" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>536</v>
       </c>
@@ -4127,7 +4138,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:2" ht="108" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>538</v>
       </c>
@@ -4135,7 +4146,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:2" ht="27" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>540</v>
       </c>
@@ -4143,7 +4154,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:2" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>542</v>
       </c>
@@ -4152,9 +4163,9 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Project2-3 - match-seasonal index/stat_documentation.xlsx
+++ b/Project2-3 - match-seasonal index/stat_documentation.xlsx
@@ -1753,6 +1753,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1968,8 +1972,8 @@
   </sheetPr>
   <dimension ref="A1:B273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
